--- a/docs/GANTT APP SELECCION.xlsx
+++ b/docs/GANTT APP SELECCION.xlsx
@@ -22,7 +22,7 @@
     <definedName name="Etapa">OFFSET(Reportes!$N$6,1,0,COUNTA(Reportes!$N$7:$N$107)-COUNTIF(Reportes!$N$7:$N$26,"")+1,1)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr autoRecover="0"/>
+  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1158,7 +1158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,7 +1549,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1734,6 +1740,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2005,7 +2048,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,7 +2060,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,7 +2152,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,7 +2164,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3147,16 +3190,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.660377358490566</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.8867924528301886E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.32075471698113206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6502,8 +6545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7116,12 +7159,12 @@
         <v>127</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L9" s="34"/>
       <c r="M9" s="30" t="str">
         <f>IF(H9="","",IF(AND(K9="Completado",L9=""),"Completar fecha de finalización",IF(AND(K9="Completado",L9&lt;&gt;""),L9-H9+1,"")))</f>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O9" s="59" t="str">
         <f>IF(AND(O$8&gt;=$H9,O$8&lt;=$I9),"x","")</f>
@@ -7536,12 +7579,12 @@
         <v>127</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="30" t="str">
         <f t="shared" ref="M10:M25" si="70">IF(H10="","",IF(AND(K10="Completado",L10=""),"Completar fecha de finalización",IF(AND(K10="Completado",L10&lt;&gt;""),L10-H10+1,"")))</f>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O10" s="16" t="str">
         <f t="shared" ref="O10:AD27" si="71">IF(AND(O$8&gt;=$H10,O$8&lt;=$I10),"x","")</f>
@@ -7956,12 +7999,12 @@
         <v>127</v>
       </c>
       <c r="K11" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O11" s="16" t="str">
         <f t="shared" si="71"/>
@@ -8376,12 +8419,12 @@
         <v>127</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O12" s="16" t="str">
         <f t="shared" si="71"/>
@@ -8796,12 +8839,12 @@
         <v>127</v>
       </c>
       <c r="K13" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O13" s="16" t="str">
         <f t="shared" si="71"/>
@@ -9216,12 +9259,12 @@
         <v>127</v>
       </c>
       <c r="K14" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O14" s="16" t="str">
         <f t="shared" si="71"/>
@@ -9636,12 +9679,12 @@
         <v>127</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O15" s="16" t="str">
         <f t="shared" si="71"/>
@@ -10055,12 +10098,12 @@
         <v>127</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O16" s="16" t="str">
         <f t="shared" si="71"/>
@@ -10474,12 +10517,12 @@
         <v>127</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O17" s="16" t="str">
         <f t="shared" si="71"/>
@@ -10893,12 +10936,12 @@
         <v>127</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O18" s="16" t="str">
         <f t="shared" si="71"/>
@@ -11313,12 +11356,12 @@
         <v>127</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O19" s="16" t="str">
         <f t="shared" si="71"/>
@@ -11733,12 +11776,12 @@
         <v>127</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O20" s="16" t="str">
         <f t="shared" si="71"/>
@@ -12153,12 +12196,12 @@
         <v>127</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O21" s="16" t="str">
         <f t="shared" si="71"/>
@@ -12573,12 +12616,12 @@
         <v>127</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O22" s="16" t="str">
         <f t="shared" si="71"/>
@@ -12993,12 +13036,12 @@
         <v>127</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O23" s="16" t="str">
         <f t="shared" si="71"/>
@@ -13413,12 +13456,12 @@
         <v>127</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O24" s="16" t="str">
         <f t="shared" si="71"/>
@@ -13833,12 +13876,12 @@
         <v>127</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="30" t="str">
         <f t="shared" si="70"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O25" s="16" t="str">
         <f t="shared" si="71"/>
@@ -14253,12 +14296,12 @@
         <v>127</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="30" t="str">
         <f t="shared" ref="M26:M47" si="87">IF(H26="","",IF(AND(K26="Completado",L26=""),"Completar fecha de finalización",IF(AND(K26="Completado",L26&lt;&gt;""),L26-H26+1,"")))</f>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O26" s="16" t="str">
         <f t="shared" si="71"/>
@@ -14673,12 +14716,12 @@
         <v>127</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O27" s="16" t="str">
         <f t="shared" si="71"/>
@@ -15093,12 +15136,12 @@
         <v>127</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O28" s="16" t="str">
         <f t="shared" ref="O28:AD43" si="94">IF(AND(O$8&gt;=$H28,O$8&lt;=$I28),"x","")</f>
@@ -15513,12 +15556,12 @@
         <v>127</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O29" s="16" t="str">
         <f t="shared" si="94"/>
@@ -15933,12 +15976,12 @@
         <v>127</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O30" s="16" t="str">
         <f t="shared" si="94"/>
@@ -16353,12 +16396,12 @@
         <v>127</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O31" s="16" t="str">
         <f t="shared" si="94"/>
@@ -16773,12 +16816,12 @@
         <v>127</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O32" s="16" t="str">
         <f t="shared" si="94"/>
@@ -17193,12 +17236,12 @@
         <v>127</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O33" s="16" t="str">
         <f t="shared" si="94"/>
@@ -17613,12 +17656,12 @@
         <v>127</v>
       </c>
       <c r="K34" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O34" s="16" t="str">
         <f t="shared" si="94"/>
@@ -18033,12 +18076,12 @@
         <v>127</v>
       </c>
       <c r="K35" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O35" s="16" t="str">
         <f t="shared" si="94"/>
@@ -18453,12 +18496,12 @@
         <v>127</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O36" s="16" t="str">
         <f t="shared" si="94"/>
@@ -18859,26 +18902,26 @@
         <v>71</v>
       </c>
       <c r="G37" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="29">
         <f t="shared" si="73"/>
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="I37" s="29">
         <f t="shared" si="86"/>
-        <v>45979</v>
+        <v>45980</v>
       </c>
       <c r="J37" s="58" t="s">
         <v>127</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O37" s="16" t="str">
         <f t="shared" si="94"/>
@@ -18934,11 +18977,11 @@
       </c>
       <c r="AB37" s="17" t="str">
         <f t="shared" si="94"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AC37" s="17" t="str">
         <f t="shared" si="94"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AD37" s="17" t="str">
         <f t="shared" si="94"/>
@@ -19279,26 +19322,26 @@
         <v>60</v>
       </c>
       <c r="G38" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="29">
         <f t="shared" si="73"/>
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="I38" s="29">
         <f t="shared" si="86"/>
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="J38" s="58" t="s">
         <v>127</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L38" s="34"/>
       <c r="M38" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O38" s="16" t="str">
         <f t="shared" si="94"/>
@@ -19354,7 +19397,7 @@
       </c>
       <c r="AB38" s="17" t="str">
         <f t="shared" si="94"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AC38" s="17" t="str">
         <f t="shared" si="94"/>
@@ -19362,7 +19405,7 @@
       </c>
       <c r="AD38" s="17" t="str">
         <f t="shared" si="94"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AE38" s="17" t="str">
         <f t="shared" si="96"/>
@@ -19703,22 +19746,22 @@
       </c>
       <c r="H39" s="29">
         <f t="shared" si="73"/>
-        <v>45980</v>
+        <v>45982</v>
       </c>
       <c r="I39" s="29">
         <f t="shared" si="86"/>
-        <v>45980</v>
+        <v>45982</v>
       </c>
       <c r="J39" s="58" t="s">
         <v>127</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O39" s="16" t="str">
         <f t="shared" si="94"/>
@@ -19778,7 +19821,7 @@
       </c>
       <c r="AC39" s="17" t="str">
         <f t="shared" si="94"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AD39" s="17" t="str">
         <f t="shared" si="94"/>
@@ -19786,7 +19829,7 @@
       </c>
       <c r="AE39" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AF39" s="17" t="str">
         <f t="shared" si="96"/>
@@ -20123,22 +20166,22 @@
       </c>
       <c r="H40" s="29">
         <f t="shared" si="73"/>
-        <v>45980</v>
+        <v>45982</v>
       </c>
       <c r="I40" s="29">
         <f t="shared" si="86"/>
-        <v>45980</v>
+        <v>45982</v>
       </c>
       <c r="J40" s="58" t="s">
         <v>127</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O40" s="16" t="str">
         <f t="shared" si="94"/>
@@ -20198,7 +20241,7 @@
       </c>
       <c r="AC40" s="17" t="str">
         <f t="shared" si="94"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AD40" s="17" t="str">
         <f t="shared" si="94"/>
@@ -20206,7 +20249,7 @@
       </c>
       <c r="AE40" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AF40" s="17" t="str">
         <f t="shared" si="96"/>
@@ -20539,26 +20582,26 @@
         <v>60</v>
       </c>
       <c r="G41" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="29">
         <f t="shared" si="73"/>
-        <v>45981</v>
+        <v>45983</v>
       </c>
       <c r="I41" s="29">
         <f t="shared" ref="I41:I47" si="97">IF(H41="","",H41+D41-1)</f>
-        <v>45983</v>
+        <v>45985</v>
       </c>
       <c r="J41" s="58" t="s">
         <v>127</v>
       </c>
       <c r="K41" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="30" t="str">
         <f>IF(H41="","",IF(AND(K41="Completado",L41=""),"Completar fecha de finalización",IF(AND(K41="Completado",L41&lt;&gt;""),L41-H41+1,"")))</f>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O41" s="16" t="str">
         <f>IF(AND(O$8&gt;=$H41,O$8&lt;=$I41),"x","")</f>
@@ -20622,11 +20665,11 @@
       </c>
       <c r="AD41" s="17" t="str">
         <f t="shared" si="94"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AE41" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AF41" s="17" t="str">
         <f t="shared" si="96"/>
@@ -20634,11 +20677,11 @@
       </c>
       <c r="AG41" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AH41" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AI41" s="17" t="str">
         <f t="shared" si="96"/>
@@ -20959,26 +21002,26 @@
         <v>60</v>
       </c>
       <c r="G42" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="29">
         <f t="shared" si="73"/>
-        <v>45980</v>
+        <v>45984</v>
       </c>
       <c r="I42" s="29">
         <f t="shared" si="97"/>
-        <v>45980</v>
+        <v>45984</v>
       </c>
       <c r="J42" s="58" t="s">
         <v>127</v>
       </c>
       <c r="K42" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O42" s="16" t="str">
         <f t="shared" si="94"/>
@@ -21038,7 +21081,7 @@
       </c>
       <c r="AC42" s="17" t="str">
         <f t="shared" si="94"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AD42" s="17" t="str">
         <f t="shared" si="94"/>
@@ -21054,7 +21097,7 @@
       </c>
       <c r="AG42" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AH42" s="17" t="str">
         <f t="shared" si="96"/>
@@ -21379,26 +21422,26 @@
         <v>60</v>
       </c>
       <c r="G43" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="29">
         <f t="shared" si="73"/>
-        <v>45980</v>
+        <v>45985</v>
       </c>
       <c r="I43" s="29">
         <f t="shared" si="97"/>
-        <v>45980</v>
+        <v>45985</v>
       </c>
       <c r="J43" s="58" t="s">
         <v>127</v>
       </c>
       <c r="K43" s="31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="30" t="str">
         <f t="shared" si="87"/>
-        <v/>
+        <v>Completar fecha de finalización</v>
       </c>
       <c r="O43" s="16" t="str">
         <f t="shared" si="94"/>
@@ -21458,7 +21501,7 @@
       </c>
       <c r="AC43" s="17" t="str">
         <f t="shared" si="94"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AD43" s="17" t="str">
         <f t="shared" ref="O43:AD58" si="100">IF(AND(AD$8&gt;=$H43,AD$8&lt;=$I43),"x","")</f>
@@ -21478,7 +21521,7 @@
       </c>
       <c r="AH43" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AI43" s="17" t="str">
         <f t="shared" si="96"/>
@@ -21781,422 +21824,422 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:110" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="28">
+    <row r="44" spans="2:110" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="76">
         <f t="shared" si="95"/>
         <v>36</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="78">
         <v>1</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="79">
         <v>35</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="33">
-        <v>0</v>
-      </c>
-      <c r="H44" s="29">
+      <c r="G44" s="80">
+        <v>1</v>
+      </c>
+      <c r="H44" s="81">
         <f t="shared" si="73"/>
-        <v>45980</v>
-      </c>
-      <c r="I44" s="29">
+        <v>45986</v>
+      </c>
+      <c r="I44" s="81">
         <f t="shared" si="97"/>
-        <v>45980</v>
-      </c>
-      <c r="J44" s="58" t="s">
+        <v>45986</v>
+      </c>
+      <c r="J44" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="K44" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="34"/>
-      <c r="M44" s="30" t="str">
+      <c r="K44" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="83"/>
+      <c r="M44" s="84" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="O44" s="16" t="str">
+      <c r="O44" s="86" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="P44" s="17" t="str">
+      <c r="P44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="Q44" s="17" t="str">
+      <c r="Q44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="R44" s="17" t="str">
+      <c r="R44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="S44" s="17" t="str">
+      <c r="S44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="T44" s="17" t="str">
+      <c r="T44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="U44" s="17" t="str">
+      <c r="U44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="V44" s="17" t="str">
+      <c r="V44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="W44" s="17" t="str">
+      <c r="W44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="X44" s="17" t="str">
+      <c r="X44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="Y44" s="17" t="str">
+      <c r="Y44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="Z44" s="17" t="str">
+      <c r="Z44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AA44" s="17" t="str">
+      <c r="AA44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AB44" s="17" t="str">
+      <c r="AB44" s="87" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AC44" s="17" t="str">
+      <c r="AC44" s="87" t="str">
         <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="AD44" s="87" t="str">
+        <f t="shared" si="100"/>
+        <v/>
+      </c>
+      <c r="AE44" s="87" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AF44" s="87" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AG44" s="87" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AH44" s="87" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="AI44" s="87" t="str">
+        <f t="shared" si="96"/>
         <v>x</v>
       </c>
-      <c r="AD44" s="17" t="str">
-        <f t="shared" si="100"/>
-        <v/>
-      </c>
-      <c r="AE44" s="17" t="str">
+      <c r="AJ44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AF44" s="17" t="str">
+      <c r="AK44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AG44" s="17" t="str">
+      <c r="AL44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH44" s="17" t="str">
+      <c r="AM44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AI44" s="17" t="str">
+      <c r="AN44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AJ44" s="17" t="str">
+      <c r="AO44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AK44" s="17" t="str">
+      <c r="AP44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AL44" s="17" t="str">
+      <c r="AQ44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AM44" s="17" t="str">
+      <c r="AR44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AN44" s="17" t="str">
+      <c r="AS44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AO44" s="17" t="str">
+      <c r="AT44" s="87" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AP44" s="17" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="AQ44" s="17" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="AR44" s="17" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="AS44" s="17" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="AT44" s="17" t="str">
-        <f t="shared" si="96"/>
-        <v/>
-      </c>
-      <c r="AU44" s="17" t="str">
+      <c r="AU44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AV44" s="17" t="str">
+      <c r="AV44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AW44" s="17" t="str">
+      <c r="AW44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AX44" s="17" t="str">
+      <c r="AX44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AY44" s="17" t="str">
+      <c r="AY44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AZ44" s="17" t="str">
+      <c r="AZ44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BA44" s="17" t="str">
+      <c r="BA44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BB44" s="17" t="str">
+      <c r="BB44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BC44" s="17" t="str">
+      <c r="BC44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BD44" s="17" t="str">
+      <c r="BD44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BE44" s="17" t="str">
+      <c r="BE44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BF44" s="17" t="str">
+      <c r="BF44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BG44" s="17" t="str">
+      <c r="BG44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BH44" s="17" t="str">
+      <c r="BH44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BI44" s="17" t="str">
+      <c r="BI44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BJ44" s="17" t="str">
+      <c r="BJ44" s="87" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BK44" s="17" t="str">
+      <c r="BK44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BL44" s="17" t="str">
+      <c r="BL44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BM44" s="17" t="str">
+      <c r="BM44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BN44" s="17" t="str">
+      <c r="BN44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BO44" s="17" t="str">
+      <c r="BO44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BP44" s="17" t="str">
+      <c r="BP44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BQ44" s="17" t="str">
+      <c r="BQ44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BR44" s="17" t="str">
+      <c r="BR44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BS44" s="17" t="str">
+      <c r="BS44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BT44" s="17" t="str">
+      <c r="BT44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BU44" s="17" t="str">
+      <c r="BU44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BV44" s="17" t="str">
+      <c r="BV44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BW44" s="17" t="str">
+      <c r="BW44" s="87" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BX44" s="17" t="str">
+      <c r="BX44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="BY44" s="17" t="str">
+      <c r="BY44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="BZ44" s="17" t="str">
+      <c r="BZ44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CA44" s="17" t="str">
+      <c r="CA44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CB44" s="17" t="str">
+      <c r="CB44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CC44" s="17" t="str">
+      <c r="CC44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CD44" s="17" t="str">
+      <c r="CD44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CE44" s="17" t="str">
+      <c r="CE44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CF44" s="17" t="str">
+      <c r="CF44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CG44" s="17" t="str">
+      <c r="CG44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CH44" s="17" t="str">
+      <c r="CH44" s="87" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CI44" s="17" t="str">
+      <c r="CI44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CJ44" s="17" t="str">
+      <c r="CJ44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CK44" s="17" t="str">
+      <c r="CK44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CL44" s="17" t="str">
+      <c r="CL44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CM44" s="17" t="str">
+      <c r="CM44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CN44" s="17" t="str">
+      <c r="CN44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CO44" s="17" t="str">
+      <c r="CO44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CP44" s="17" t="str">
+      <c r="CP44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CQ44" s="17" t="str">
+      <c r="CQ44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CR44" s="17" t="str">
+      <c r="CR44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CS44" s="17" t="str">
+      <c r="CS44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CT44" s="17" t="str">
+      <c r="CT44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CU44" s="17" t="str">
+      <c r="CU44" s="87" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CV44" s="17" t="str">
+      <c r="CV44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CW44" s="17" t="str">
+      <c r="CW44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CX44" s="17" t="str">
+      <c r="CX44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CY44" s="17" t="str">
+      <c r="CY44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CZ44" s="17" t="str">
+      <c r="CZ44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DA44" s="17" t="str">
+      <c r="DA44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DB44" s="17" t="str">
+      <c r="DB44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DC44" s="17" t="str">
+      <c r="DC44" s="87" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DE44" s="23">
+      <c r="DE44" s="88">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="DF44" s="23">
+      <c r="DF44" s="88">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
@@ -22223,11 +22266,11 @@
       </c>
       <c r="H45" s="29">
         <f t="shared" si="73"/>
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="I45" s="29">
         <f t="shared" si="97"/>
-        <v>45981</v>
+        <v>45987</v>
       </c>
       <c r="J45" s="58" t="s">
         <v>127</v>
@@ -22302,7 +22345,7 @@
       </c>
       <c r="AD45" s="17" t="str">
         <f t="shared" si="100"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AE45" s="17" t="str">
         <f t="shared" si="96"/>
@@ -22326,7 +22369,7 @@
       </c>
       <c r="AJ45" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AK45" s="17" t="str">
         <f t="shared" si="96"/>
@@ -22639,15 +22682,15 @@
         <v>60</v>
       </c>
       <c r="G46" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="29">
         <f t="shared" si="73"/>
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="I46" s="29">
         <f t="shared" si="97"/>
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="J46" s="58" t="s">
         <v>127</v>
@@ -22722,7 +22765,7 @@
       </c>
       <c r="AD46" s="17" t="str">
         <f t="shared" si="100"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AE46" s="17" t="str">
         <f t="shared" si="96"/>
@@ -22750,7 +22793,7 @@
       </c>
       <c r="AK46" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AL46" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23063,11 +23106,11 @@
       </c>
       <c r="H47" s="29">
         <f t="shared" si="73"/>
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="I47" s="29">
         <f t="shared" si="97"/>
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="J47" s="58" t="s">
         <v>127</v>
@@ -23146,7 +23189,7 @@
       </c>
       <c r="AE47" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AF47" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23174,7 +23217,7 @@
       </c>
       <c r="AL47" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AM47" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23479,15 +23522,15 @@
         <v>60</v>
       </c>
       <c r="G48" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="29">
         <f t="shared" si="73"/>
-        <v>45982</v>
+        <v>45990</v>
       </c>
       <c r="I48" s="29">
         <f t="shared" ref="I48:I61" si="104">IF(H48="","",H48+D48-1)</f>
-        <v>45982</v>
+        <v>45990</v>
       </c>
       <c r="J48" s="58" t="s">
         <v>127</v>
@@ -23566,7 +23609,7 @@
       </c>
       <c r="AE48" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AF48" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23598,7 +23641,7 @@
       </c>
       <c r="AM48" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AN48" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23903,11 +23946,11 @@
       </c>
       <c r="H49" s="29">
         <f t="shared" si="73"/>
-        <v>45983</v>
+        <v>45991</v>
       </c>
       <c r="I49" s="29">
         <f t="shared" si="104"/>
-        <v>45983</v>
+        <v>45991</v>
       </c>
       <c r="J49" s="58" t="s">
         <v>127</v>
@@ -23990,7 +24033,7 @@
       </c>
       <c r="AF49" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AG49" s="17" t="str">
         <f t="shared" si="96"/>
@@ -24022,7 +24065,7 @@
       </c>
       <c r="AN49" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AO49" s="17" t="str">
         <f t="shared" si="96"/>
@@ -24319,15 +24362,15 @@
         <v>60</v>
       </c>
       <c r="G50" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="29">
         <f t="shared" si="73"/>
-        <v>45983</v>
+        <v>45992</v>
       </c>
       <c r="I50" s="29">
         <f t="shared" si="104"/>
-        <v>45983</v>
+        <v>45992</v>
       </c>
       <c r="J50" s="58" t="s">
         <v>127</v>
@@ -24410,7 +24453,7 @@
       </c>
       <c r="AF50" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AG50" s="17" t="str">
         <f t="shared" si="96"/>
@@ -24446,7 +24489,7 @@
       </c>
       <c r="AO50" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AP50" s="17" t="str">
         <f t="shared" si="96"/>
@@ -24739,15 +24782,15 @@
         <v>60</v>
       </c>
       <c r="G51" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H51" s="29">
         <f t="shared" si="73"/>
-        <v>45984</v>
+        <v>45990</v>
       </c>
       <c r="I51" s="29">
         <f t="shared" si="104"/>
-        <v>45987</v>
+        <v>45993</v>
       </c>
       <c r="J51" s="58" t="s">
         <v>127</v>
@@ -24834,19 +24877,19 @@
       </c>
       <c r="AG51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AH51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AI51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AJ51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AK51" s="17" t="str">
         <f t="shared" si="107"/>
@@ -24858,19 +24901,19 @@
       </c>
       <c r="AM51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AN51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AO51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AP51" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AQ51" s="17" t="str">
         <f t="shared" si="107"/>
@@ -25159,15 +25202,15 @@
         <v>71</v>
       </c>
       <c r="G52" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="29">
         <f t="shared" si="73"/>
-        <v>45984</v>
+        <v>45991</v>
       </c>
       <c r="I52" s="29">
         <f t="shared" si="104"/>
-        <v>45984</v>
+        <v>45991</v>
       </c>
       <c r="J52" s="58" t="s">
         <v>127</v>
@@ -25254,7 +25297,7 @@
       </c>
       <c r="AG52" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AH52" s="17" t="str">
         <f t="shared" si="107"/>
@@ -25282,7 +25325,7 @@
       </c>
       <c r="AN52" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AO52" s="17" t="str">
         <f t="shared" si="107"/>
@@ -25579,15 +25622,15 @@
         <v>60</v>
       </c>
       <c r="G53" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="29">
         <f t="shared" si="73"/>
-        <v>45984</v>
+        <v>45992</v>
       </c>
       <c r="I53" s="29">
         <f t="shared" si="104"/>
-        <v>45984</v>
+        <v>45992</v>
       </c>
       <c r="J53" s="58" t="s">
         <v>127</v>
@@ -25674,7 +25717,7 @@
       </c>
       <c r="AG53" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AH53" s="17" t="str">
         <f t="shared" si="107"/>
@@ -25706,7 +25749,7 @@
       </c>
       <c r="AO53" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AP53" s="17" t="str">
         <f t="shared" si="107"/>
@@ -26003,11 +26046,11 @@
       </c>
       <c r="H54" s="29">
         <f t="shared" si="73"/>
-        <v>45985</v>
+        <v>45993</v>
       </c>
       <c r="I54" s="29">
         <f t="shared" si="104"/>
-        <v>45987</v>
+        <v>45995</v>
       </c>
       <c r="J54" s="58" t="s">
         <v>127</v>
@@ -26098,15 +26141,15 @@
       </c>
       <c r="AH54" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AI54" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AJ54" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AK54" s="17" t="str">
         <f t="shared" si="107"/>
@@ -26130,15 +26173,15 @@
       </c>
       <c r="AP54" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AQ54" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AR54" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AS54" s="17" t="str">
         <f t="shared" si="107"/>
@@ -26423,11 +26466,11 @@
       </c>
       <c r="H55" s="29">
         <f t="shared" si="73"/>
-        <v>45988</v>
+        <v>45994</v>
       </c>
       <c r="I55" s="29">
         <f t="shared" si="104"/>
-        <v>45990</v>
+        <v>45996</v>
       </c>
       <c r="J55" s="58" t="s">
         <v>127</v>
@@ -26530,15 +26573,15 @@
       </c>
       <c r="AK55" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AL55" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AM55" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AN55" s="17" t="str">
         <f t="shared" si="107"/>
@@ -26554,15 +26597,15 @@
       </c>
       <c r="AQ55" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AR55" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AS55" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AT55" s="17" t="str">
         <f t="shared" si="107"/>
@@ -26843,11 +26886,11 @@
       </c>
       <c r="H56" s="29">
         <f t="shared" si="73"/>
-        <v>45988</v>
+        <v>45994</v>
       </c>
       <c r="I56" s="29">
         <f t="shared" si="104"/>
-        <v>45988</v>
+        <v>45994</v>
       </c>
       <c r="J56" s="58" t="s">
         <v>127</v>
@@ -26950,7 +26993,7 @@
       </c>
       <c r="AK56" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AL56" s="17" t="str">
         <f t="shared" si="107"/>
@@ -26974,7 +27017,7 @@
       </c>
       <c r="AQ56" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AR56" s="17" t="str">
         <f t="shared" si="107"/>
@@ -27263,11 +27306,11 @@
       </c>
       <c r="H57" s="29">
         <f t="shared" si="73"/>
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="I57" s="29">
         <f t="shared" si="104"/>
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="J57" s="58" t="s">
         <v>127</v>
@@ -27374,7 +27417,7 @@
       </c>
       <c r="AL57" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AM57" s="17" t="str">
         <f t="shared" si="107"/>
@@ -27398,7 +27441,7 @@
       </c>
       <c r="AR57" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AS57" s="17" t="str">
         <f t="shared" si="107"/>
@@ -27683,11 +27726,11 @@
       </c>
       <c r="H58" s="29">
         <f t="shared" si="73"/>
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="I58" s="29">
         <f t="shared" si="104"/>
-        <v>45990</v>
+        <v>45996</v>
       </c>
       <c r="J58" s="58" t="s">
         <v>127</v>
@@ -27794,11 +27837,11 @@
       </c>
       <c r="AL58" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AM58" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AN58" s="17" t="str">
         <f t="shared" si="107"/>
@@ -27818,11 +27861,11 @@
       </c>
       <c r="AR58" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AS58" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AT58" s="17" t="str">
         <f t="shared" si="107"/>
@@ -28103,11 +28146,11 @@
       </c>
       <c r="H59" s="29">
         <f t="shared" si="73"/>
-        <v>45991</v>
+        <v>45997</v>
       </c>
       <c r="I59" s="29">
         <f t="shared" si="104"/>
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="J59" s="58" t="s">
         <v>127</v>
@@ -28222,11 +28265,11 @@
       </c>
       <c r="AN59" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AO59" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AP59" s="17" t="str">
         <f t="shared" si="107"/>
@@ -28246,11 +28289,11 @@
       </c>
       <c r="AT59" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AU59" s="17" t="str">
         <f t="shared" ref="AU59:BJ61" si="111">IF(AND(AU$8&gt;=$H59,AU$8&lt;=$I59),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AV59" s="17" t="str">
         <f t="shared" si="111"/>
@@ -28523,11 +28566,11 @@
       </c>
       <c r="H60" s="29">
         <f t="shared" si="73"/>
-        <v>45991</v>
+        <v>45997</v>
       </c>
       <c r="I60" s="29">
         <f t="shared" si="104"/>
-        <v>45991</v>
+        <v>45997</v>
       </c>
       <c r="J60" s="58" t="s">
         <v>127</v>
@@ -28642,7 +28685,7 @@
       </c>
       <c r="AN60" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AO60" s="17" t="str">
         <f t="shared" si="107"/>
@@ -28666,7 +28709,7 @@
       </c>
       <c r="AT60" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AU60" s="17" t="str">
         <f t="shared" si="111"/>
@@ -28943,11 +28986,11 @@
       </c>
       <c r="H61" s="29">
         <f t="shared" si="73"/>
-        <v>45991</v>
+        <v>45997</v>
       </c>
       <c r="I61" s="29">
         <f t="shared" si="104"/>
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="J61" s="58" t="s">
         <v>127</v>
@@ -29062,11 +29105,11 @@
       </c>
       <c r="AN61" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AO61" s="17" t="str">
         <f t="shared" si="107"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AP61" s="17" t="str">
         <f t="shared" si="107"/>
@@ -29086,11 +29129,11 @@
       </c>
       <c r="AT61" s="17" t="str">
         <f t="shared" si="107"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AU61" s="17" t="str">
         <f t="shared" si="111"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AV61" s="17" t="str">
         <f t="shared" si="111"/>
@@ -30462,7 +30505,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">TODAY()</f>
-        <v>45975</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -30480,7 +30523,7 @@
       </c>
       <c r="C5" s="19">
         <f ca="1">IF('Información del proyecto'!D4="","",C3-'Información del proyecto'!D4)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -30489,7 +30532,7 @@
       </c>
       <c r="C6" s="19">
         <f ca="1">IF('Información del proyecto'!D4="","",C4-C5)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>17</v>
@@ -30502,7 +30545,7 @@
       </c>
       <c r="R6" s="21">
         <f>IF(COUNTA('Información del proyecto'!$K$9:$K$61)=0,NA(),COUNTIF('Información del proyecto'!$K$9:$K$61,Reportes!Q6)/COUNTA('Información del proyecto'!$K$9:$K$61))</f>
-        <v>0</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -30545,7 +30588,7 @@
       </c>
       <c r="R8" s="21">
         <f>IF(COUNTA('Información del proyecto'!$K$9:$K$61)=0,NA(),COUNTIF('Información del proyecto'!$K$9:$K$61,Reportes!Q8)/COUNTA('Información del proyecto'!$K$9:$K$61))</f>
-        <v>0</v>
+        <v>1.8867924528301886E-2</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -30568,7 +30611,7 @@
       </c>
       <c r="R9" s="21">
         <f>IF(COUNTA('Información del proyecto'!$K$9:$K$61)=0,NA(),COUNTIF('Información del proyecto'!$K$9:$K$61,Reportes!Q9)/COUNTA('Información del proyecto'!$K$9:$K$61))</f>
-        <v>1</v>
+        <v>0.32075471698113206</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">

--- a/docs/GANTT APP SELECCION.xlsx
+++ b/docs/GANTT APP SELECCION.xlsx
@@ -22,7 +22,7 @@
     <definedName name="Etapa">OFFSET(Reportes!$N$6,1,0,COUNTA(Reportes!$N$7:$N$107)-COUNTIF(Reportes!$N$7:$N$26,"")+1,1)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr autoRecover="0" repairLoad="1"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1694,6 +1694,43 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1740,43 +1777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,7 +2048,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,7 +2060,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,7 +2152,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,7 +2164,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,17 +6227,17 @@
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -6545,8 +6545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6597,17 +6597,17 @@
       <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:113" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -6615,17 +6615,17 @@
       <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:113" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="69">
+      <c r="C4" s="77"/>
+      <c r="D4" s="82">
         <v>45966</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
@@ -6639,17 +6639,17 @@
     </row>
     <row r="5" spans="1:113" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="71">
+      <c r="C5" s="77"/>
+      <c r="D5" s="84">
         <v>25</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -6663,18 +6663,18 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:113" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="73">
+      <c r="C6" s="75"/>
+      <c r="D6" s="86">
         <f>IF(D4="","",D4+D5)</f>
         <v>45991</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
@@ -21824,422 +21824,422 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:110" s="85" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="76">
+    <row r="44" spans="2:110" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="60">
         <f t="shared" si="95"/>
         <v>36</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="78">
+      <c r="D44" s="62">
         <v>1</v>
       </c>
-      <c r="E44" s="79">
+      <c r="E44" s="63">
         <v>35</v>
       </c>
-      <c r="F44" s="78" t="s">
+      <c r="F44" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="80">
+      <c r="G44" s="64">
         <v>1</v>
       </c>
-      <c r="H44" s="81">
+      <c r="H44" s="65">
         <f t="shared" si="73"/>
         <v>45986</v>
       </c>
-      <c r="I44" s="81">
+      <c r="I44" s="65">
         <f t="shared" si="97"/>
         <v>45986</v>
       </c>
-      <c r="J44" s="82" t="s">
+      <c r="J44" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="K44" s="78" t="s">
+      <c r="K44" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="83"/>
-      <c r="M44" s="84" t="str">
+      <c r="L44" s="67"/>
+      <c r="M44" s="68" t="str">
         <f t="shared" si="87"/>
         <v/>
       </c>
-      <c r="O44" s="86" t="str">
+      <c r="O44" s="70" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="P44" s="87" t="str">
+      <c r="P44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="Q44" s="87" t="str">
+      <c r="Q44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="R44" s="87" t="str">
+      <c r="R44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="S44" s="87" t="str">
+      <c r="S44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="T44" s="87" t="str">
+      <c r="T44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="U44" s="87" t="str">
+      <c r="U44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="V44" s="87" t="str">
+      <c r="V44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="W44" s="87" t="str">
+      <c r="W44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="X44" s="87" t="str">
+      <c r="X44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="Y44" s="87" t="str">
+      <c r="Y44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="Z44" s="87" t="str">
+      <c r="Z44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AA44" s="87" t="str">
+      <c r="AA44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AB44" s="87" t="str">
+      <c r="AB44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AC44" s="87" t="str">
+      <c r="AC44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AD44" s="87" t="str">
+      <c r="AD44" s="71" t="str">
         <f t="shared" si="100"/>
         <v/>
       </c>
-      <c r="AE44" s="87" t="str">
+      <c r="AE44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AF44" s="87" t="str">
+      <c r="AF44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AG44" s="87" t="str">
+      <c r="AG44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AH44" s="87" t="str">
+      <c r="AH44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AI44" s="87" t="str">
+      <c r="AI44" s="71" t="str">
         <f t="shared" si="96"/>
         <v>x</v>
       </c>
-      <c r="AJ44" s="87" t="str">
+      <c r="AJ44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AK44" s="87" t="str">
+      <c r="AK44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AL44" s="87" t="str">
+      <c r="AL44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AM44" s="87" t="str">
+      <c r="AM44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AN44" s="87" t="str">
+      <c r="AN44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AO44" s="87" t="str">
+      <c r="AO44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AP44" s="87" t="str">
+      <c r="AP44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AQ44" s="87" t="str">
+      <c r="AQ44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AR44" s="87" t="str">
+      <c r="AR44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AS44" s="87" t="str">
+      <c r="AS44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AT44" s="87" t="str">
+      <c r="AT44" s="71" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
-      <c r="AU44" s="87" t="str">
+      <c r="AU44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AV44" s="87" t="str">
+      <c r="AV44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AW44" s="87" t="str">
+      <c r="AW44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AX44" s="87" t="str">
+      <c r="AX44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AY44" s="87" t="str">
+      <c r="AY44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="AZ44" s="87" t="str">
+      <c r="AZ44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BA44" s="87" t="str">
+      <c r="BA44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BB44" s="87" t="str">
+      <c r="BB44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BC44" s="87" t="str">
+      <c r="BC44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BD44" s="87" t="str">
+      <c r="BD44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BE44" s="87" t="str">
+      <c r="BE44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BF44" s="87" t="str">
+      <c r="BF44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BG44" s="87" t="str">
+      <c r="BG44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BH44" s="87" t="str">
+      <c r="BH44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BI44" s="87" t="str">
+      <c r="BI44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BJ44" s="87" t="str">
+      <c r="BJ44" s="71" t="str">
         <f t="shared" si="101"/>
         <v/>
       </c>
-      <c r="BK44" s="87" t="str">
+      <c r="BK44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BL44" s="87" t="str">
+      <c r="BL44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BM44" s="87" t="str">
+      <c r="BM44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BN44" s="87" t="str">
+      <c r="BN44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BO44" s="87" t="str">
+      <c r="BO44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BP44" s="87" t="str">
+      <c r="BP44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BQ44" s="87" t="str">
+      <c r="BQ44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BR44" s="87" t="str">
+      <c r="BR44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BS44" s="87" t="str">
+      <c r="BS44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BT44" s="87" t="str">
+      <c r="BT44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BU44" s="87" t="str">
+      <c r="BU44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BV44" s="87" t="str">
+      <c r="BV44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BW44" s="87" t="str">
+      <c r="BW44" s="71" t="str">
         <f t="shared" si="99"/>
         <v/>
       </c>
-      <c r="BX44" s="87" t="str">
+      <c r="BX44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="BY44" s="87" t="str">
+      <c r="BY44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="BZ44" s="87" t="str">
+      <c r="BZ44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CA44" s="87" t="str">
+      <c r="CA44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CB44" s="87" t="str">
+      <c r="CB44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CC44" s="87" t="str">
+      <c r="CC44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CD44" s="87" t="str">
+      <c r="CD44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CE44" s="87" t="str">
+      <c r="CE44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CF44" s="87" t="str">
+      <c r="CF44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CG44" s="87" t="str">
+      <c r="CG44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CH44" s="87" t="str">
+      <c r="CH44" s="71" t="str">
         <f t="shared" si="88"/>
         <v/>
       </c>
-      <c r="CI44" s="87" t="str">
+      <c r="CI44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CJ44" s="87" t="str">
+      <c r="CJ44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CK44" s="87" t="str">
+      <c r="CK44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CL44" s="87" t="str">
+      <c r="CL44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CM44" s="87" t="str">
+      <c r="CM44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CN44" s="87" t="str">
+      <c r="CN44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CO44" s="87" t="str">
+      <c r="CO44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CP44" s="87" t="str">
+      <c r="CP44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CQ44" s="87" t="str">
+      <c r="CQ44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CR44" s="87" t="str">
+      <c r="CR44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CS44" s="87" t="str">
+      <c r="CS44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CT44" s="87" t="str">
+      <c r="CT44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CU44" s="87" t="str">
+      <c r="CU44" s="71" t="str">
         <f t="shared" si="89"/>
         <v/>
       </c>
-      <c r="CV44" s="87" t="str">
+      <c r="CV44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CW44" s="87" t="str">
+      <c r="CW44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CX44" s="87" t="str">
+      <c r="CX44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CY44" s="87" t="str">
+      <c r="CY44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="CZ44" s="87" t="str">
+      <c r="CZ44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DA44" s="87" t="str">
+      <c r="DA44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DB44" s="87" t="str">
+      <c r="DB44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DC44" s="87" t="str">
+      <c r="DC44" s="71" t="str">
         <f t="shared" si="98"/>
         <v/>
       </c>
-      <c r="DE44" s="88">
+      <c r="DE44" s="72">
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="DF44" s="88">
+      <c r="DF44" s="72">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
@@ -30505,7 +30505,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">TODAY()</f>
-        <v>45986</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -30523,7 +30523,7 @@
       </c>
       <c r="C5" s="19">
         <f ca="1">IF('Información del proyecto'!D4="","",C3-'Información del proyecto'!D4)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -30532,7 +30532,7 @@
       </c>
       <c r="C6" s="19">
         <f ca="1">IF('Información del proyecto'!D4="","",C4-C5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>17</v>
@@ -30828,10 +30828,10 @@
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="75"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>

--- a/docs/GANTT APP SELECCION.xlsx
+++ b/docs/GANTT APP SELECCION.xlsx
@@ -2048,7 +2048,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,7 +2060,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2152,7 +2152,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,7 +2164,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6545,8 +6545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.28515625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -22262,15 +22262,15 @@
         <v>60</v>
       </c>
       <c r="G45" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="29">
         <f t="shared" si="73"/>
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="I45" s="29">
         <f t="shared" si="97"/>
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="J45" s="58" t="s">
         <v>127</v>
@@ -22369,11 +22369,11 @@
       </c>
       <c r="AJ45" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AK45" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AL45" s="17" t="str">
         <f t="shared" si="96"/>
@@ -22686,11 +22686,11 @@
       </c>
       <c r="H46" s="29">
         <f t="shared" si="73"/>
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="I46" s="29">
         <f t="shared" si="97"/>
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="J46" s="58" t="s">
         <v>127</v>
@@ -22793,11 +22793,11 @@
       </c>
       <c r="AK46" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AL46" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AM46" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23106,11 +23106,11 @@
       </c>
       <c r="H47" s="29">
         <f t="shared" si="73"/>
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="I47" s="29">
         <f t="shared" si="97"/>
-        <v>45989</v>
+        <v>45990</v>
       </c>
       <c r="J47" s="58" t="s">
         <v>127</v>
@@ -23217,11 +23217,11 @@
       </c>
       <c r="AL47" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AM47" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AN47" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23526,11 +23526,11 @@
       </c>
       <c r="H48" s="29">
         <f t="shared" si="73"/>
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="I48" s="29">
         <f t="shared" ref="I48:I61" si="104">IF(H48="","",H48+D48-1)</f>
-        <v>45990</v>
+        <v>45991</v>
       </c>
       <c r="J48" s="58" t="s">
         <v>127</v>
@@ -23641,11 +23641,11 @@
       </c>
       <c r="AM48" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AN48" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AO48" s="17" t="str">
         <f t="shared" si="96"/>
@@ -23946,11 +23946,11 @@
       </c>
       <c r="H49" s="29">
         <f t="shared" si="73"/>
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="I49" s="29">
         <f t="shared" si="104"/>
-        <v>45991</v>
+        <v>45992</v>
       </c>
       <c r="J49" s="58" t="s">
         <v>127</v>
@@ -24065,11 +24065,11 @@
       </c>
       <c r="AN49" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AO49" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AP49" s="17" t="str">
         <f t="shared" si="96"/>
@@ -24366,11 +24366,11 @@
       </c>
       <c r="H50" s="29">
         <f t="shared" si="73"/>
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="I50" s="29">
         <f t="shared" si="104"/>
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="J50" s="58" t="s">
         <v>127</v>
@@ -24489,11 +24489,11 @@
       </c>
       <c r="AO50" s="17" t="str">
         <f t="shared" si="96"/>
-        <v>x</v>
+        <v/>
       </c>
       <c r="AP50" s="17" t="str">
         <f t="shared" si="96"/>
-        <v/>
+        <v>x</v>
       </c>
       <c r="AQ50" s="17" t="str">
         <f t="shared" si="96"/>
@@ -30505,7 +30505,7 @@
       </c>
       <c r="C3" s="9">
         <f ca="1">TODAY()</f>
-        <v>45990</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -30523,7 +30523,7 @@
       </c>
       <c r="C5" s="19">
         <f ca="1">IF('Información del proyecto'!D4="","",C3-'Información del proyecto'!D4)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
@@ -30532,7 +30532,7 @@
       </c>
       <c r="C6" s="19">
         <f ca="1">IF('Información del proyecto'!D4="","",C4-C5)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N6" s="18" t="s">
         <v>17</v>
